--- a/Spark/Resultados Trabalho 1.xlsx
+++ b/Spark/Resultados Trabalho 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Rodada</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Desvio Padrão</t>
-  </si>
-  <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>Soma Acumulada</t>
-  </si>
-  <si>
-    <t>Contagem</t>
   </si>
   <si>
     <t>Unidade Federativa</t>
@@ -80,7 +71,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +87,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,14 +124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -142,6 +133,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +828,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1144,7 +1141,566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" baseline="0"/>
+              <a:t>Média da porcentagem de erro na predição por característica a ser predizida</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.277174095358025E-2"/>
+                  <c:y val="-6.0289513090182514E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FCA7-49E3-B9A2-5AEE150DF1A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8730239308776712E-2"/>
+                  <c:y val="-1.4737266286997996E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FCA7-49E3-B9A2-5AEE150DF1A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2136860607968578E-2"/>
+                  <c:y val="-4.0193008726788337E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FCA7-49E3-B9A2-5AEE150DF1A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5116109785566782E-2"/>
+                  <c:y val="-1.0048252181697085E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FCA7-49E3-B9A2-5AEE150DF1A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$C$16:$F$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1047994470408731E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0710061298272329E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.712804958673155E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$C$16:$F$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1047994470408731E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0710061298272329E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.712804958673155E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$C$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tipo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orgão Responsável</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Estágio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unidade Federativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79972727272727273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCA7-49E3-B9A2-5AEE150DF1A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="454635256"/>
+        <c:axId val="454630008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454635256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454630008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454630008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454635256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1686,6 +2242,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1719,6 +2778,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA902B77-CB97-4D95-930D-EFBB6F332B82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2026,268 +3121,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>0.48299999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>0.79810000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>0.47170000000000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>0.83589999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>0.5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>0.76419999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>0.50409999999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>0.81</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>0.44330000000000003</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>0.8256</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>0.40570000000000001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>0.76239999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>0.44119999999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>0.79049999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>0.4783</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <v>0.4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>0.8286</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>0.37390000000000001</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>0.77569999999999995</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>0.4587</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <f>AVERAGE(C4:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <f t="shared" ref="D15:F15" si="0">AVERAGE(D4:D14)</f>
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0.45090000000000002</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0.79972727272727273</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <f>_xlfn.STDEV.P(C4:C14)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.P(D4:D14)</f>
         <v>1.1047994470408731E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>4.0710061298272329E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>2.712804958673155E-2</v>
       </c>
@@ -2296,8 +3395,39 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C4:F15">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B07FA99E-3798-42D7-9B43-4F2C1DA2C388}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B07FA99E-3798-42D7-9B43-4F2C1DA2C388}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C4:F15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>